--- a/regression_data.xlsx
+++ b/regression_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/86ecc77df370a8e1/桌面/streamlit_prac/project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="119" documentId="11_AD4DBB64A54DDB1B405E3876BD9E384B4E90DF23" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{532DFCE8-BCB5-4750-B0DA-824D02FF035B}"/>
+  <xr:revisionPtr revIDLastSave="126" documentId="11_AD4DBB64A54DDB1B405E3876BD9E384B4E90DF23" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8A81765F-7550-4E55-9984-AD95498F5CE2}"/>
   <bookViews>
-    <workbookView xWindow="5920" yWindow="9660" windowWidth="28720" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5960" yWindow="5460" windowWidth="28720" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -31,27 +31,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>身高(公分)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>體重(公斤)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BMI</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>坐姿體前彎(公分)</t>
+    <t>height(cm)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>立定跳遠(公分)</t>
+    <t>weight(kg)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>仰臥起坐(下)</t>
+    <t>Seated Forward Bend(cm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Standing long jump(cm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sit-up(once)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -392,7 +392,7 @@
     <col min="2" max="3" width="11.69921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.8984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -401,13 +401,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>

--- a/regression_data.xlsx
+++ b/regression_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/86ecc77df370a8e1/桌面/streamlit_prac/project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="126" documentId="11_AD4DBB64A54DDB1B405E3876BD9E384B4E90DF23" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8A81765F-7550-4E55-9984-AD95498F5CE2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF217C2A-47B9-49DC-8CE9-EB1A935AB72B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5960" yWindow="5460" windowWidth="28720" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -59,17 +59,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -381,22 +381,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="A14" sqref="A14:G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="3" width="11.69921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.8984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -419,7 +419,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
@@ -442,7 +442,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
@@ -465,7 +465,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>3</v>
       </c>
@@ -488,7 +488,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>4</v>
       </c>
@@ -511,7 +511,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>5</v>
       </c>
@@ -534,7 +534,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>6</v>
       </c>
@@ -557,7 +557,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>7</v>
       </c>
@@ -580,7 +580,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>8</v>
       </c>
@@ -603,7 +603,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>9</v>
       </c>
@@ -626,7 +626,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>10</v>
       </c>
@@ -649,7 +649,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>11</v>
       </c>
@@ -672,7 +672,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>12</v>
       </c>
@@ -695,118 +695,95 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7">
       <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>167.2</v>
+      </c>
+      <c r="C14">
+        <v>43.2</v>
+      </c>
+      <c r="D14">
+        <v>15.5</v>
+      </c>
+      <c r="E14">
         <v>13</v>
       </c>
-      <c r="B14">
-        <v>139.19999999999999</v>
-      </c>
-      <c r="C14">
-        <v>40.299999999999997</v>
-      </c>
-      <c r="D14">
-        <v>20.8</v>
-      </c>
-      <c r="E14">
-        <v>25</v>
-      </c>
       <c r="F14">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="G14">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15">
-        <v>167.2</v>
+        <v>171.4</v>
       </c>
       <c r="C15">
-        <v>43.2</v>
+        <v>63</v>
       </c>
       <c r="D15">
-        <v>15.5</v>
+        <v>21.4</v>
       </c>
       <c r="E15">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F15">
-        <v>160</v>
+        <v>260</v>
       </c>
       <c r="G15">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16">
-        <v>171.4</v>
+        <v>166</v>
       </c>
       <c r="C16">
-        <v>63</v>
+        <v>54.9</v>
       </c>
       <c r="D16">
-        <v>21.4</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="E16">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F16">
-        <v>260</v>
+        <v>190</v>
       </c>
       <c r="G16">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C17">
-        <v>54.9</v>
+        <v>51.4</v>
       </c>
       <c r="D17">
-        <v>19.899999999999999</v>
+        <v>18.2</v>
       </c>
       <c r="E17">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F17">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="G17">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>168</v>
-      </c>
-      <c r="C18">
-        <v>51.4</v>
-      </c>
-      <c r="D18">
-        <v>18.2</v>
-      </c>
-      <c r="E18">
-        <v>29</v>
-      </c>
-      <c r="F18">
-        <v>200</v>
-      </c>
-      <c r="G18">
         <v>52</v>
       </c>
     </row>
